--- a/asset/book1.xlsx
+++ b/asset/book1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="52">
   <si>
     <t>NO</t>
   </si>
@@ -154,45 +154,6 @@
     <t>HERI</t>
   </si>
   <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>PAJAR</t>
-  </si>
-  <si>
-    <t>NAUFAL</t>
-  </si>
-  <si>
-    <t>MELI</t>
-  </si>
-  <si>
-    <t>YEMIMA</t>
-  </si>
-  <si>
-    <t>DERESTA</t>
-  </si>
-  <si>
-    <t>KEMIH</t>
-  </si>
-  <si>
-    <t>HASRANI</t>
-  </si>
-  <si>
-    <t>ANITA</t>
-  </si>
-  <si>
-    <t>SABILLA</t>
-  </si>
-  <si>
-    <t>EKA</t>
-  </si>
-  <si>
-    <t>BERLIANA</t>
-  </si>
-  <si>
-    <t>POPY</t>
-  </si>
-  <si>
     <t>IPS1</t>
   </si>
   <si>
@@ -203,6 +164,12 @@
   </si>
   <si>
     <t>IPS4</t>
+  </si>
+  <si>
+    <t>RAMZY</t>
+  </si>
+  <si>
+    <t>TAJUS</t>
   </si>
 </sst>
 </file>
@@ -577,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,16 +575,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1613,25 +1580,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C40" s="1">
-        <v>2020804094</v>
+        <v>2020804031</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1639,10 +1606,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1">
-        <v>2020804161</v>
+        <v>2020804031</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
@@ -1651,299 +1618,13 @@
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2020804027</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="1">
-        <v>2020804028</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2020804009</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2020804041</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2020804126</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2020804106</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="1">
-        <v>2020804112</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="1">
-        <v>2020804034</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="1">
-        <v>2020804035</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="1">
-        <v>2020804015</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>51</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="1">
-        <v>2020804067</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
